--- a/pairwise/testcase/pairwise 테스트케이스 B3.xlsx
+++ b/pairwise/testcase/pairwise 테스트케이스 B3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGGit\vnv-team-3\pairwise\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435ECB01-C5C8-40B4-A189-E273C3FFA653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDA560-8A4D-42AF-BDF0-316322DADAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,286 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+  <si>
+    <t>testcase ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>validoutput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inmode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worlddis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.STW.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopwatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timekeeping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeardis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seconddis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.STW.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minutedis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>montthdis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.STW.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourdis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeworld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldchanged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changenum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.4</t>
+  </si>
+  <si>
+    <t>daydis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.STW.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.9</t>
+  </si>
+  <si>
+    <t>PT.BRT.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changebrightness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.10</t>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timerworking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.4</t>
+  </si>
+  <si>
+    <t>PT.STW.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.5</t>
+  </si>
+  <si>
+    <t>PT.STW.7</t>
+  </si>
+  <si>
+    <t>PT.TIMER.6</t>
+  </si>
+  <si>
+    <t>PT.STW.8</t>
+  </si>
+  <si>
+    <t>PT.ALM.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changealarmidx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TKEEP.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.STW.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.ALM.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.TIMER.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.WRD.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.ALM.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT.BRT.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunonoffbc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +319,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -59,12 +349,276 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -345,12 +899,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -361,9 +1557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pairwise/testcase/pairwise 테스트케이스 B3.xlsx
+++ b/pairwise/testcase/pairwise 테스트케이스 B3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGGit\vnv-team-3\pairwise\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDA560-8A4D-42AF-BDF0-316322DADAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A442D-5116-4C27-A62B-0BBF16DD1984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
-    <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId2"/>
+    <sheet name="Iteratiokn #1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration #2" sheetId="3" r:id="rId2"/>
+    <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="161">
   <si>
     <t>testcase ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -298,13 +299,286 @@
   <si>
     <t>trunonoffbc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>currentunit</t>
+  </si>
+  <si>
+    <t>P/F</t>
+  </si>
+  <si>
+    <t>PT.Alarm.1</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>inedit</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.1</t>
+  </si>
+  <si>
+    <t>timekeeping</t>
+  </si>
+  <si>
+    <t>innormal</t>
+  </si>
+  <si>
+    <t>ringing</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>PT.Swmode.1</t>
+  </si>
+  <si>
+    <t>swmode</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>PT.Timer.1</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>nextmode</t>
+  </si>
+  <si>
+    <t>PT.Swmode.2</t>
+  </si>
+  <si>
+    <t>modecheck</t>
+  </si>
+  <si>
+    <t>PT.Worldtime.1</t>
+  </si>
+  <si>
+    <t>worldtime</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.2</t>
+  </si>
+  <si>
+    <t>nextunit</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>PT.Alarm.2</t>
+  </si>
+  <si>
+    <t>nextalarm</t>
+  </si>
+  <si>
+    <t>PT.Timer.2</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>PT.Worldtime.2</t>
+  </si>
+  <si>
+    <t>nextworld</t>
+  </si>
+  <si>
+    <t>PT.Timer.3</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>PT.Brightnesscontrol.1</t>
+  </si>
+  <si>
+    <t>brightnesscontrol</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.3</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>PT.Timer.4</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>PT.Timer.5</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.4</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>PT.Worldtime.3</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.5</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>PT.Alarm.3</t>
+  </si>
+  <si>
+    <t>PT.Timer.6</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.6</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PT.Timer.7</t>
+  </si>
+  <si>
+    <t>PT.Swmode.3</t>
+  </si>
+  <si>
+    <t>PT.Brightnesscontrol.5</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>P.Timekeeping.7</t>
+  </si>
+  <si>
+    <t>PT.Alarm.4</t>
+  </si>
+  <si>
+    <t>PT.Stopwatch.1</t>
+  </si>
+  <si>
+    <t>stopwatch</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.8</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>PT.Stopwatch.2</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>PT.Timer.8</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.9</t>
+  </si>
+  <si>
+    <t>PT.Stopwatch.3</t>
+  </si>
+  <si>
+    <t>laptime</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.10</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.11</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.12</t>
+  </si>
+  <si>
+    <t>PT.Stopwatch.4</t>
+  </si>
+  <si>
+    <t>PT.Brightnesscontrol.2</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>PT.Brightnesscontrol.3</t>
+  </si>
+  <si>
+    <t>nextlevel</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.13</t>
+  </si>
+  <si>
+    <t>PT.Alarm.5</t>
+  </si>
+  <si>
+    <t>PT.Brightnesscontrol.4</t>
+  </si>
+  <si>
+    <t>PT.Stopwatch.5</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.14</t>
+  </si>
+  <si>
+    <t>PT.Timer.9</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.15</t>
+  </si>
+  <si>
+    <t>PT.Alarm.6</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.16</t>
+  </si>
+  <si>
+    <t>PT.Stopwatch.6</t>
+  </si>
+  <si>
+    <t>PT.Timekeeping.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +600,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Raleway"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +647,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -562,11 +881,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +1048,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,11 +1379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -917,8 +1395,8 @@
     <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:11" ht="18" thickBot="1"/>
+    <row r="3" spans="3:11" ht="18" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:11" ht="18" thickTop="1">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -946,7 +1424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:11">
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
@@ -960,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:11">
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
@@ -979,7 +1457,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:11">
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
@@ -994,7 +1472,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:11">
       <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1487,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:11">
       <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1502,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11">
       <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1517,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:11">
       <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
@@ -1054,7 +1532,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:11">
       <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1547,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:11">
       <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +1562,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:11">
       <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
@@ -1099,7 +1577,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:11">
       <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
@@ -1114,7 +1592,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:11">
       <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
@@ -1129,7 +1607,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:7">
       <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
@@ -1144,7 +1622,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:7">
       <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
@@ -1159,7 +1637,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:7">
       <c r="C19" s="9" t="s">
         <v>55</v>
       </c>
@@ -1174,7 +1652,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:7">
       <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
@@ -1189,7 +1667,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:7">
       <c r="C21" s="9" t="s">
         <v>61</v>
       </c>
@@ -1204,7 +1682,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:7">
       <c r="C22" s="9" t="s">
         <v>63</v>
       </c>
@@ -1219,7 +1697,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:7">
       <c r="C23" s="15" t="s">
         <v>65</v>
       </c>
@@ -1234,7 +1712,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:7">
       <c r="C24" s="9" t="s">
         <v>67</v>
       </c>
@@ -1249,7 +1727,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:7">
       <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1742,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:7">
       <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1757,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:7">
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1772,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:7">
       <c r="C28" s="9" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:7">
       <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:7">
       <c r="C30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:7">
       <c r="C31" s="9" t="s">
         <v>33</v>
       </c>
@@ -1350,7 +1828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:7">
       <c r="C32" s="9" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6">
       <c r="C33" s="9" t="s">
         <v>33</v>
       </c>
@@ -1378,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6">
       <c r="C34" s="9" t="s">
         <v>38</v>
       </c>
@@ -1392,7 +1870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:6">
       <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
@@ -1406,7 +1884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:6">
       <c r="C36" s="9" t="s">
         <v>48</v>
       </c>
@@ -1420,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:6">
       <c r="C37" s="9" t="s">
         <v>50</v>
       </c>
@@ -1434,7 +1912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:6">
       <c r="C38" s="9" t="s">
         <v>52</v>
       </c>
@@ -1448,7 +1926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:6">
       <c r="C39" s="9" t="s">
         <v>54</v>
       </c>
@@ -1462,7 +1940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:6">
       <c r="C40" s="9" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:6">
       <c r="C41" s="9" t="s">
         <v>60</v>
       </c>
@@ -1490,7 +1968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:6">
       <c r="C42" s="9" t="s">
         <v>62</v>
       </c>
@@ -1504,7 +1982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:6">
       <c r="C43" s="9" t="s">
         <v>64</v>
       </c>
@@ -1518,7 +1996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:6">
       <c r="C44" s="9" t="s">
         <v>66</v>
       </c>
@@ -1532,7 +2010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:6" ht="18" thickBot="1">
       <c r="C45" s="12" t="s">
         <v>68</v>
       </c>
@@ -1554,12 +2032,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676CE8BB-B585-4A09-A5B8-B9FAA4FCED8E}">
+  <dimension ref="C5:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="3" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" ht="18" thickBot="1"/>
+    <row r="6" spans="3:9" ht="27" thickBot="1">
+      <c r="C6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C9" s="26">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C11" s="26">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C12" s="21">
+        <v>6</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C13" s="26">
+        <v>7</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C14" s="26">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C15" s="26">
+        <v>9</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C17" s="26">
+        <v>11</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C18" s="21">
+        <v>12</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C19" s="26">
+        <v>13</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C20" s="26">
+        <v>14</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C21" s="26">
+        <v>15</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C22" s="26">
+        <v>16</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C23" s="26">
+        <v>17</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C24" s="26">
+        <v>18</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C25" s="26">
+        <v>19</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C26" s="26">
+        <v>20</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C27" s="26">
+        <v>21</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C28" s="26">
+        <v>22</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C29" s="26">
+        <v>23</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C30" s="21">
+        <v>24</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C31" s="26">
+        <v>25</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C32" s="26">
+        <v>26</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C33" s="21">
+        <v>27</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C34" s="26">
+        <v>28</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C35" s="26">
+        <v>29</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C36" s="26">
+        <v>30</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C37" s="26">
+        <v>31</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C38" s="26">
+        <v>32</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C39" s="26">
+        <v>33</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C40" s="26">
+        <v>34</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C41" s="26">
+        <v>35</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C42" s="26">
+        <v>36</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C43" s="21">
+        <v>37</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C44" s="21">
+        <v>38</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C45" s="26">
+        <v>39</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C46" s="26">
+        <v>40</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C47" s="21">
+        <v>41</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C48" s="26">
+        <v>42</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C49" s="26">
+        <v>43</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C50" s="26">
+        <v>44</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C51" s="26">
+        <v>45</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C52" s="21">
+        <v>46</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C53" s="26">
+        <v>47</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C54" s="26">
+        <v>48</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C55" s="29">
+        <v>49</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
